--- a/NewCo/TOL/df_analysis.xlsx
+++ b/NewCo/TOL/df_analysis.xlsx
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>-163</v>
+        <v>-147</v>
       </c>
       <c r="X3" t="n">
         <v>89</v>
@@ -891,7 +891,7 @@
         <v>577</v>
       </c>
       <c r="AA3" t="n">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AB3" t="n">
         <v>573</v>
@@ -918,7 +918,7 @@
         <v>162059</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1590</v>
+        <v>1606</v>
       </c>
       <c r="AK3" t="n">
         <v>1714</v>
@@ -930,7 +930,7 @@
         <v>473.4610540370674</v>
       </c>
       <c r="AN3" t="n">
-        <v>-124</v>
+        <v>-108</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>-128</v>
       </c>
       <c r="W8" t="n">
-        <v>-210</v>
+        <v>-213</v>
       </c>
       <c r="X8" t="n">
         <v>-128</v>
@@ -1616,7 +1616,7 @@
         <v>104</v>
       </c>
       <c r="AA8" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB8" t="n">
         <v>104</v>
@@ -1643,7 +1643,7 @@
         <v>81816</v>
       </c>
       <c r="AJ8" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AK8" t="n">
         <v>825</v>
@@ -1655,7 +1655,7 @@
         <v>470.9811762955146</v>
       </c>
       <c r="AN8" t="n">
-        <v>-520</v>
+        <v>-523</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>31</v>
       </c>
       <c r="W10" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="X10" t="n">
         <v>122</v>
@@ -1906,7 +1906,7 @@
         <v>264</v>
       </c>
       <c r="AA10" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AB10" t="n">
         <v>330</v>
@@ -1933,7 +1933,7 @@
         <v>74842</v>
       </c>
       <c r="AJ10" t="n">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AK10" t="n">
         <v>699</v>
@@ -1945,7 +1945,7 @@
         <v>471.40610778301</v>
       </c>
       <c r="AN10" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>

--- a/NewCo/TOL/df_analysis.xlsx
+++ b/NewCo/TOL/df_analysis.xlsx
@@ -728,7 +728,7 @@
         <v>439.3632160457207</v>
       </c>
       <c r="U2" t="n">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="V2" t="n">
         <v>263</v>
@@ -740,7 +740,7 @@
         <v>292</v>
       </c>
       <c r="Y2" t="n">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="Z2" t="n">
         <v>732</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>-147</v>
+        <v>-153</v>
       </c>
       <c r="X3" t="n">
         <v>89</v>
@@ -891,7 +891,7 @@
         <v>577</v>
       </c>
       <c r="AA3" t="n">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AB3" t="n">
         <v>573</v>
@@ -918,7 +918,7 @@
         <v>162059</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="AK3" t="n">
         <v>1714</v>
@@ -930,7 +930,7 @@
         <v>473.4610540370674</v>
       </c>
       <c r="AN3" t="n">
-        <v>-108</v>
+        <v>-114</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>-128</v>
       </c>
       <c r="W8" t="n">
-        <v>-213</v>
+        <v>-216</v>
       </c>
       <c r="X8" t="n">
         <v>-128</v>
@@ -1616,7 +1616,7 @@
         <v>104</v>
       </c>
       <c r="AA8" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="n">
         <v>104</v>
@@ -1643,7 +1643,7 @@
         <v>81816</v>
       </c>
       <c r="AJ8" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AK8" t="n">
         <v>825</v>
@@ -1655,7 +1655,7 @@
         <v>470.9811762955146</v>
       </c>
       <c r="AN8" t="n">
-        <v>-523</v>
+        <v>-526</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>31</v>
       </c>
       <c r="W10" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="X10" t="n">
         <v>122</v>
@@ -1906,7 +1906,7 @@
         <v>264</v>
       </c>
       <c r="AA10" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AB10" t="n">
         <v>330</v>
@@ -1933,7 +1933,7 @@
         <v>74842</v>
       </c>
       <c r="AJ10" t="n">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="AK10" t="n">
         <v>699</v>
@@ -1945,7 +1945,7 @@
         <v>471.40610778301</v>
       </c>
       <c r="AN10" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>

--- a/NewCo/TOL/df_analysis.xlsx
+++ b/NewCo/TOL/df_analysis.xlsx
@@ -671,121 +671,121 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>043</t>
+          <t>33Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BKK : Min Buri, Khan Na Yao, Bueng Kum</t>
+          <t>Si Sa Ket</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27260841.35931696</v>
+        <v>10396260.60292771</v>
       </c>
       <c r="F2" t="n">
-        <v>27461718.17716287</v>
+        <v>10428965.44235052</v>
       </c>
       <c r="G2" t="n">
-        <v>27454827.97196996</v>
+        <v>10314893.63782322</v>
       </c>
       <c r="H2" t="n">
-        <v>23922887.75047344</v>
+        <v>10153806.40034119</v>
       </c>
       <c r="I2" t="n">
-        <v>30861655.81763409</v>
+        <v>10721588.67972448</v>
       </c>
       <c r="J2" t="n">
-        <v>30783700.96615842</v>
+        <v>10829544.47831612</v>
       </c>
       <c r="K2" t="n">
-        <v>30677737.85986368</v>
+        <v>10941941.12288088</v>
       </c>
       <c r="L2" t="n">
-        <v>27199310.00811746</v>
+        <v>11056214.93367536</v>
       </c>
       <c r="M2" t="n">
-        <v>54825</v>
+        <v>25230</v>
       </c>
       <c r="N2" t="n">
-        <v>54608</v>
+        <v>24973</v>
       </c>
       <c r="O2" t="n">
-        <v>54544</v>
+        <v>24653</v>
       </c>
       <c r="P2" t="n">
-        <v>54449</v>
+        <v>24465</v>
       </c>
       <c r="Q2" t="n">
-        <v>497.2337685237932</v>
+        <v>412.0594769293583</v>
       </c>
       <c r="R2" t="n">
-        <v>502.888188125602</v>
+        <v>417.6096361010098</v>
       </c>
       <c r="S2" t="n">
-        <v>503.3519355377303</v>
+        <v>418.4031816745718</v>
       </c>
       <c r="T2" t="n">
-        <v>439.3632160457207</v>
+        <v>415.0339832553111</v>
       </c>
       <c r="U2" t="n">
-        <v>146</v>
+        <v>-116</v>
       </c>
       <c r="V2" t="n">
-        <v>263</v>
+        <v>-99</v>
       </c>
       <c r="W2" t="n">
-        <v>256</v>
+        <v>-132</v>
       </c>
       <c r="X2" t="n">
-        <v>292</v>
+        <v>-218</v>
       </c>
       <c r="Y2" t="n">
-        <v>709</v>
+        <v>496</v>
       </c>
       <c r="Z2" t="n">
-        <v>732</v>
+        <v>476</v>
       </c>
       <c r="AA2" t="n">
-        <v>815</v>
+        <v>403</v>
       </c>
       <c r="AB2" t="n">
-        <v>752</v>
+        <v>296</v>
       </c>
       <c r="AC2" t="n">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="AD2" t="n">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="AE2" t="n">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="AF2" t="n">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="AG2" t="n">
-        <v>78839433.89960627</v>
+        <v>30897665.48051492</v>
       </c>
       <c r="AH2" t="n">
-        <v>88660748.83413957</v>
+        <v>32827700.53487236</v>
       </c>
       <c r="AI2" t="n">
-        <v>163601</v>
+        <v>74091</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2299</v>
+        <v>1175</v>
       </c>
       <c r="AK2" t="n">
-        <v>1545</v>
+        <v>1657</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.8892258968745421</v>
+        <v>0.9412071201177435</v>
       </c>
       <c r="AM2" t="n">
-        <v>481.9006845899858</v>
+        <v>417.0231941870798</v>
       </c>
       <c r="AN2" t="n">
-        <v>754</v>
+        <v>-482</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="AP2" t="n">
-        <v>0.8711358698002983</v>
+        <v>0.9736158832311448</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
-        <v>-3538830.426689431</v>
+        <v>-275159.0420093313</v>
       </c>
       <c r="AS2" t="n">
         <v>1</v>
@@ -816,121 +816,121 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>050</t>
+          <t>46Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BKK : Bang Khun Thian, Chom Thong, Bang Bon</t>
+          <t>Kalasin</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26500264.36528196</v>
+        <v>8798332.034040578</v>
       </c>
       <c r="F3" t="n">
-        <v>26709345.54054343</v>
+        <v>8935688.979372548</v>
       </c>
       <c r="G3" t="n">
-        <v>26627617.5632314</v>
+        <v>8826148.061957184</v>
       </c>
       <c r="H3" t="n">
-        <v>23391661.85241826</v>
+        <v>8665722.502136366</v>
       </c>
       <c r="I3" t="n">
-        <v>29740194.34679387</v>
+        <v>8429327.721015861</v>
       </c>
       <c r="J3" t="n">
-        <v>29689508.86707991</v>
+        <v>8597378.862266319</v>
       </c>
       <c r="K3" t="n">
-        <v>29614397.33194403</v>
+        <v>8777650.066356234</v>
       </c>
       <c r="L3" t="n">
-        <v>26283576.53826526</v>
+        <v>8963086.747714512</v>
       </c>
       <c r="M3" t="n">
-        <v>54306</v>
+        <v>21373</v>
       </c>
       <c r="N3" t="n">
-        <v>54090</v>
+        <v>21280</v>
       </c>
       <c r="O3" t="n">
-        <v>54009</v>
+        <v>21013</v>
       </c>
       <c r="P3" t="n">
-        <v>53960</v>
+        <v>20750</v>
       </c>
       <c r="Q3" t="n">
-        <v>487.9804140478392</v>
+        <v>411.6563904945762</v>
       </c>
       <c r="R3" t="n">
-        <v>493.7945191448222</v>
+        <v>419.9101963990859</v>
       </c>
       <c r="S3" t="n">
-        <v>493.0218586389566</v>
+        <v>420.0327445846468</v>
       </c>
       <c r="T3" t="n">
-        <v>433.5000343294711</v>
+        <v>417.625180825849</v>
       </c>
       <c r="U3" t="n">
-        <v>26</v>
+        <v>-150</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>-208</v>
       </c>
       <c r="W3" t="n">
-        <v>-153</v>
+        <v>-282</v>
       </c>
       <c r="X3" t="n">
-        <v>89</v>
+        <v>-298</v>
       </c>
       <c r="Y3" t="n">
-        <v>621</v>
+        <v>323</v>
       </c>
       <c r="Z3" t="n">
-        <v>577</v>
+        <v>232</v>
       </c>
       <c r="AA3" t="n">
-        <v>450</v>
+        <v>232</v>
       </c>
       <c r="AB3" t="n">
-        <v>573</v>
+        <v>131</v>
       </c>
       <c r="AC3" t="n">
+        <v>473</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>484</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>524</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>429</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>26427559.5434661</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26338115.67633706</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>63043</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>595</v>
       </c>
-      <c r="AD3" t="n">
-        <v>625</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>605</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>484</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>76728624.9561931</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>85587482.73728919</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>162059</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1600</v>
-      </c>
       <c r="AK3" t="n">
-        <v>1714</v>
+        <v>1437</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.8964935350617993</v>
+        <v>1.003395985811141</v>
       </c>
       <c r="AM3" t="n">
-        <v>473.4610540370674</v>
+        <v>419.1989521987548</v>
       </c>
       <c r="AN3" t="n">
-        <v>-114</v>
+        <v>-842</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="AP3" t="n">
-        <v>0.8757856614985532</v>
+        <v>0.9697878386479899</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="n">
-        <v>-3317683.688125171</v>
+        <v>-269966.4772361815</v>
       </c>
       <c r="AS3" t="n">
         <v>2</v>
@@ -961,121 +961,121 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>45Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SMP : Bang Phli</t>
+          <t>Roi Et</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23288057.4084844</v>
+        <v>12307202.4102134</v>
       </c>
       <c r="F4" t="n">
-        <v>23612979.14054306</v>
+        <v>12460670.84489146</v>
       </c>
       <c r="G4" t="n">
-        <v>23595473.56084932</v>
+        <v>12442653.82006082</v>
       </c>
       <c r="H4" t="n">
-        <v>20597670.69517176</v>
+        <v>12201134.12927267</v>
       </c>
       <c r="I4" t="n">
-        <v>25597690.82724173</v>
+        <v>12103401.43907931</v>
       </c>
       <c r="J4" t="n">
-        <v>25609941.47808202</v>
+        <v>12308134.17785266</v>
       </c>
       <c r="K4" t="n">
-        <v>25607032.12356392</v>
+        <v>12526575.95388254</v>
       </c>
       <c r="L4" t="n">
-        <v>22788651.26543602</v>
+        <v>12750812.60358653</v>
       </c>
       <c r="M4" t="n">
-        <v>45177</v>
+        <v>30746</v>
       </c>
       <c r="N4" t="n">
-        <v>45077</v>
+        <v>30699</v>
       </c>
       <c r="O4" t="n">
-        <v>45028</v>
+        <v>30490</v>
       </c>
       <c r="P4" t="n">
-        <v>44867</v>
+        <v>30231</v>
       </c>
       <c r="Q4" t="n">
-        <v>515.4848132564002</v>
+        <v>400.2862944842712</v>
       </c>
       <c r="R4" t="n">
-        <v>523.8365272875982</v>
+        <v>405.8982652494042</v>
       </c>
       <c r="S4" t="n">
-        <v>524.0178013868998</v>
+        <v>408.0896628422702</v>
       </c>
       <c r="T4" t="n">
-        <v>459.0828603466191</v>
+        <v>403.5967758020795</v>
       </c>
       <c r="U4" t="n">
-        <v>-44</v>
+        <v>-118</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>-210</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>-276</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>-259</v>
       </c>
       <c r="Y4" t="n">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="Z4" t="n">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="AA4" t="n">
-        <v>452</v>
+        <v>344</v>
       </c>
       <c r="AB4" t="n">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AC4" t="n">
-        <v>493</v>
+        <v>609</v>
       </c>
       <c r="AD4" t="n">
-        <v>456</v>
+        <v>700</v>
       </c>
       <c r="AE4" t="n">
-        <v>455</v>
+        <v>627</v>
       </c>
       <c r="AF4" t="n">
-        <v>384</v>
+        <v>592</v>
       </c>
       <c r="AG4" t="n">
-        <v>67806123.39656414</v>
+        <v>37104458.79422495</v>
       </c>
       <c r="AH4" t="n">
-        <v>74005624.86708196</v>
+        <v>37585522.73532172</v>
       </c>
       <c r="AI4" t="n">
-        <v>134972</v>
+        <v>91420</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1265</v>
+        <v>1111</v>
       </c>
       <c r="AK4" t="n">
-        <v>1295</v>
+        <v>1919</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.9162293206543091</v>
+        <v>0.9872008181319057</v>
       </c>
       <c r="AM4" t="n">
-        <v>502.3717763429759</v>
+        <v>405.8680681932285</v>
       </c>
       <c r="AN4" t="n">
-        <v>-30</v>
+        <v>-808</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="AP4" t="n">
-        <v>0.8723029217353573</v>
+        <v>0.9791715294586089</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>-3015308.445371304</v>
+        <v>-259536.7156187929</v>
       </c>
       <c r="AS4" t="n">
         <v>3</v>
@@ -1106,121 +1106,121 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>036</t>
+          <t>34Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BKK : Don Mueang, Sai Mai</t>
+          <t>Ubon Ratchathani</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22593468.55358928</v>
+        <v>18528098.815734</v>
       </c>
       <c r="F5" t="n">
-        <v>22828420.0122133</v>
+        <v>18782511.96288849</v>
       </c>
       <c r="G5" t="n">
-        <v>22814697.56959036</v>
+        <v>18767535.73034215</v>
       </c>
       <c r="H5" t="n">
-        <v>19967190.5174789</v>
+        <v>18574766.83531183</v>
       </c>
       <c r="I5" t="n">
-        <v>25143951.53393224</v>
+        <v>18759112.03623093</v>
       </c>
       <c r="J5" t="n">
-        <v>25129240.34737781</v>
+        <v>19047151.58958781</v>
       </c>
       <c r="K5" t="n">
-        <v>25096831.24015733</v>
+        <v>19353366.49769238</v>
       </c>
       <c r="L5" t="n">
-        <v>22305198.66103321</v>
+        <v>19667264.21261391</v>
       </c>
       <c r="M5" t="n">
-        <v>45853</v>
+        <v>45082</v>
       </c>
       <c r="N5" t="n">
-        <v>45724</v>
+        <v>44970</v>
       </c>
       <c r="O5" t="n">
-        <v>45672</v>
+        <v>44625</v>
       </c>
       <c r="P5" t="n">
-        <v>45712</v>
+        <v>44350</v>
       </c>
       <c r="Q5" t="n">
-        <v>492.7369758486747</v>
+        <v>410.9866202860122</v>
       </c>
       <c r="R5" t="n">
-        <v>499.2655938284774</v>
+        <v>417.6675997973869</v>
       </c>
       <c r="S5" t="n">
-        <v>499.5335778943415</v>
+        <v>420.5610247695719</v>
       </c>
       <c r="T5" t="n">
-        <v>436.8041327764897</v>
+        <v>418.822251078057</v>
       </c>
       <c r="U5" t="n">
-        <v>-255</v>
+        <v>-199</v>
       </c>
       <c r="V5" t="n">
-        <v>-257</v>
+        <v>-365</v>
       </c>
       <c r="W5" t="n">
-        <v>-313</v>
+        <v>-372</v>
       </c>
       <c r="X5" t="n">
-        <v>-275</v>
+        <v>-371</v>
       </c>
       <c r="Y5" t="n">
-        <v>209</v>
+        <v>819</v>
       </c>
       <c r="Z5" t="n">
-        <v>140</v>
+        <v>613</v>
       </c>
       <c r="AA5" t="n">
-        <v>139</v>
+        <v>548</v>
       </c>
       <c r="AB5" t="n">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="AC5" t="n">
-        <v>464</v>
+        <v>1018</v>
       </c>
       <c r="AD5" t="n">
-        <v>601</v>
+        <v>1022</v>
       </c>
       <c r="AE5" t="n">
-        <v>462</v>
+        <v>933</v>
       </c>
       <c r="AF5" t="n">
-        <v>418</v>
+        <v>953</v>
       </c>
       <c r="AG5" t="n">
-        <v>65610308.09928256</v>
+        <v>56124814.52854247</v>
       </c>
       <c r="AH5" t="n">
-        <v>72531270.24856836</v>
+        <v>58067782.2998941</v>
       </c>
       <c r="AI5" t="n">
-        <v>137108</v>
+        <v>133945</v>
       </c>
       <c r="AJ5" t="n">
-        <v>414</v>
+        <v>1743</v>
       </c>
       <c r="AK5" t="n">
-        <v>1481</v>
+        <v>2908</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.9045796092420924</v>
+        <v>0.9665396594394275</v>
       </c>
       <c r="AM5" t="n">
-        <v>478.5301229635219</v>
+        <v>419.0138827768298</v>
       </c>
       <c r="AN5" t="n">
-        <v>-1067</v>
+        <v>-1165</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="AP5" t="n">
-        <v>0.8746637089556074</v>
+        <v>0.988939438559276</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>-2861229.494734403</v>
+        <v>-207745.1275766604</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
@@ -1251,121 +1251,121 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>023</t>
+          <t>42Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BKK : Nong Khaem, Bang Khae</t>
+          <t>Loei</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20392112.06163681</v>
+        <v>7820850.666830473</v>
       </c>
       <c r="F6" t="n">
-        <v>20526986.88839303</v>
+        <v>7855187.037687428</v>
       </c>
       <c r="G6" t="n">
-        <v>20448036.2088289</v>
+        <v>7796726.885482958</v>
       </c>
       <c r="H6" t="n">
-        <v>17885678.44524064</v>
+        <v>7661691.023131584</v>
       </c>
       <c r="I6" t="n">
-        <v>22910080.94512849</v>
+        <v>8469228.049394581</v>
       </c>
       <c r="J6" t="n">
-        <v>22904438.56475126</v>
+        <v>8570932.100422403</v>
       </c>
       <c r="K6" t="n">
-        <v>22883485.14450914</v>
+        <v>8677867.989216294</v>
       </c>
       <c r="L6" t="n">
-        <v>20346606.21115402</v>
+        <v>8787015.400130518</v>
       </c>
       <c r="M6" t="n">
-        <v>42658</v>
+        <v>18331</v>
       </c>
       <c r="N6" t="n">
-        <v>42411</v>
+        <v>18163</v>
       </c>
       <c r="O6" t="n">
-        <v>42240</v>
+        <v>18003</v>
       </c>
       <c r="P6" t="n">
-        <v>42173</v>
+        <v>17802</v>
       </c>
       <c r="Q6" t="n">
-        <v>478.0372277565007</v>
+        <v>426.6461549741134</v>
       </c>
       <c r="R6" t="n">
-        <v>484.0014828321197</v>
+        <v>432.4829068814308</v>
       </c>
       <c r="S6" t="n">
-        <v>484.0917663075024</v>
+        <v>433.0793137523167</v>
       </c>
       <c r="T6" t="n">
-        <v>424.1025880359623</v>
+        <v>430.3837222296137</v>
       </c>
       <c r="U6" t="n">
-        <v>-221</v>
+        <v>-199</v>
       </c>
       <c r="V6" t="n">
-        <v>-275</v>
+        <v>-224</v>
       </c>
       <c r="W6" t="n">
-        <v>-138</v>
+        <v>-142</v>
       </c>
       <c r="X6" t="n">
-        <v>-30</v>
+        <v>-230</v>
       </c>
       <c r="Y6" t="n">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="Z6" t="n">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="AA6" t="n">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="AB6" t="n">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c r="AC6" t="n">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="AD6" t="n">
+        <v>389</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>346</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>369</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>23313604.94630197</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26035815.48976921</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>53968</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>487</v>
       </c>
-      <c r="AE6" t="n">
-        <v>428</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>359</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>58860701.54246257</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>66134529.92041441</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>126824</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>785</v>
-      </c>
       <c r="AK6" t="n">
-        <v>1274</v>
+        <v>1104</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.8900146657622714</v>
+        <v>0.8954436228610955</v>
       </c>
       <c r="AM6" t="n">
-        <v>464.1132714822318</v>
+        <v>431.9894186610949</v>
       </c>
       <c r="AN6" t="n">
-        <v>-489</v>
+        <v>-617</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="AP6" t="n">
-        <v>0.8713250776885371</v>
+        <v>0.9753671028293159</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>-2641308.44315239</v>
+        <v>-193496.0145558445</v>
       </c>
       <c r="AS6" t="n">
         <v>5</v>
@@ -1396,121 +1396,121 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>016</t>
+          <t>30B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BKK : Bangkok Yai, Bangkok Noi, Bang Phlat</t>
+          <t>Nakhon Ratchasima 2</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17098839.56444933</v>
+        <v>14006117.27162544</v>
       </c>
       <c r="F7" t="n">
-        <v>17247550.24406436</v>
+        <v>14120664.04138585</v>
       </c>
       <c r="G7" t="n">
-        <v>17196754.45999978</v>
+        <v>14114837.32584919</v>
       </c>
       <c r="H7" t="n">
-        <v>14975955.78377769</v>
+        <v>13931270.33733135</v>
       </c>
       <c r="I7" t="n">
-        <v>18942681.16033949</v>
+        <v>15728627.68462997</v>
       </c>
       <c r="J7" t="n">
-        <v>18954271.29994713</v>
+        <v>15836574.91270192</v>
       </c>
       <c r="K7" t="n">
-        <v>18954907.7274985</v>
+        <v>15945745.24165988</v>
       </c>
       <c r="L7" t="n">
-        <v>16871453.76138534</v>
+        <v>16055432.58109543</v>
       </c>
       <c r="M7" t="n">
-        <v>35555</v>
+        <v>33556</v>
       </c>
       <c r="N7" t="n">
-        <v>35379</v>
+        <v>33404</v>
       </c>
       <c r="O7" t="n">
-        <v>35263</v>
+        <v>33202</v>
       </c>
       <c r="P7" t="n">
-        <v>35217</v>
+        <v>32953</v>
       </c>
       <c r="Q7" t="n">
-        <v>480.9123770060282</v>
+        <v>417.3953174283418</v>
       </c>
       <c r="R7" t="n">
-        <v>487.5081331881726</v>
+        <v>422.7237468981513</v>
       </c>
       <c r="S7" t="n">
-        <v>487.6713399313666</v>
+        <v>425.1200929416657</v>
       </c>
       <c r="T7" t="n">
-        <v>425.2479138989037</v>
+        <v>422.7618225148347</v>
       </c>
       <c r="U7" t="n">
-        <v>81</v>
+        <v>-419</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>-410</v>
       </c>
       <c r="W7" t="n">
-        <v>91</v>
+        <v>-403</v>
       </c>
       <c r="X7" t="n">
-        <v>96</v>
+        <v>-365</v>
       </c>
       <c r="Y7" t="n">
-        <v>494</v>
+        <v>405</v>
       </c>
       <c r="Z7" t="n">
-        <v>365</v>
+        <v>274</v>
       </c>
       <c r="AA7" t="n">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="AB7" t="n">
-        <v>449</v>
+        <v>227</v>
       </c>
       <c r="AC7" t="n">
-        <v>413</v>
+        <v>824</v>
       </c>
       <c r="AD7" t="n">
-        <v>379</v>
+        <v>713</v>
       </c>
       <c r="AE7" t="n">
-        <v>359</v>
+        <v>750</v>
       </c>
       <c r="AF7" t="n">
-        <v>353</v>
+        <v>592</v>
       </c>
       <c r="AG7" t="n">
-        <v>49420260.48784183</v>
+        <v>42166771.70456638</v>
       </c>
       <c r="AH7" t="n">
-        <v>54780632.78883097</v>
+        <v>47837752.73545722</v>
       </c>
       <c r="AI7" t="n">
-        <v>105859</v>
+        <v>99559</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1257</v>
+        <v>844</v>
       </c>
       <c r="AK7" t="n">
-        <v>1091</v>
+        <v>2055</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.902148404863223</v>
+        <v>0.8814538579550054</v>
       </c>
       <c r="AM7" t="n">
-        <v>466.8498709400413</v>
+        <v>423.5355086387607</v>
       </c>
       <c r="AN7" t="n">
-        <v>166</v>
+        <v>-1211</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="AP7" t="n">
-        <v>0.8682946605087629</v>
+        <v>0.9865874789245456</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>-2271594.460286666</v>
+        <v>-189393.704054499</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1541,121 +1541,121 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>32Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BKK : Rat Burana, Thung Khru</t>
+          <t>Surin</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13315139.09185419</v>
+        <v>13478494.5378946</v>
       </c>
       <c r="F8" t="n">
-        <v>13452323.41107067</v>
+        <v>13800121.77041398</v>
       </c>
       <c r="G8" t="n">
-        <v>13404150.59486774</v>
+        <v>13776511.85680395</v>
       </c>
       <c r="H8" t="n">
-        <v>11677321.91385541</v>
+        <v>13629897.25973872</v>
       </c>
       <c r="I8" t="n">
-        <v>15021382.49160233</v>
+        <v>13365965.93157195</v>
       </c>
       <c r="J8" t="n">
-        <v>15002479.13363441</v>
+        <v>13548533.93934478</v>
       </c>
       <c r="K8" t="n">
-        <v>14971941.31353225</v>
+        <v>13741673.82203317</v>
       </c>
       <c r="L8" t="n">
-        <v>13295399.39301546</v>
+        <v>13939282.48532965</v>
       </c>
       <c r="M8" t="n">
-        <v>27487</v>
+        <v>31240</v>
       </c>
       <c r="N8" t="n">
-        <v>27394</v>
+        <v>31366</v>
       </c>
       <c r="O8" t="n">
-        <v>27279</v>
+        <v>31280</v>
       </c>
       <c r="P8" t="n">
-        <v>27143</v>
+        <v>31189</v>
       </c>
       <c r="Q8" t="n">
-        <v>484.4158726617744</v>
+        <v>431.4498891771638</v>
       </c>
       <c r="R8" t="n">
-        <v>491.0682416248329</v>
+        <v>439.9707253208563</v>
       </c>
       <c r="S8" t="n">
-        <v>491.372506135406</v>
+        <v>440.4255708696915</v>
       </c>
       <c r="T8" t="n">
-        <v>430.2148588533106</v>
+        <v>437.0097553540902</v>
       </c>
       <c r="U8" t="n">
-        <v>-201</v>
+        <v>66</v>
       </c>
       <c r="V8" t="n">
-        <v>-128</v>
+        <v>60</v>
       </c>
       <c r="W8" t="n">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-128</v>
+        <v>-61</v>
       </c>
       <c r="Y8" t="n">
-        <v>152</v>
+        <v>643</v>
       </c>
       <c r="Z8" t="n">
-        <v>104</v>
+        <v>649</v>
       </c>
       <c r="AA8" t="n">
-        <v>91</v>
+        <v>597</v>
       </c>
       <c r="AB8" t="n">
-        <v>104</v>
+        <v>458</v>
       </c>
       <c r="AC8" t="n">
-        <v>353</v>
+        <v>577</v>
       </c>
       <c r="AD8" t="n">
-        <v>262</v>
+        <v>620</v>
       </c>
       <c r="AE8" t="n">
-        <v>314</v>
+        <v>602</v>
       </c>
       <c r="AF8" t="n">
-        <v>249</v>
+        <v>519</v>
       </c>
       <c r="AG8" t="n">
-        <v>38533795.91979382</v>
+        <v>41206530.88695665</v>
       </c>
       <c r="AH8" t="n">
-        <v>43269819.84018211</v>
+        <v>41229490.2467076</v>
       </c>
       <c r="AI8" t="n">
-        <v>81816</v>
+        <v>93835</v>
       </c>
       <c r="AJ8" t="n">
-        <v>299</v>
+        <v>1704</v>
       </c>
       <c r="AK8" t="n">
-        <v>825</v>
+        <v>1741</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.8905467150572643</v>
+        <v>0.9994431325826836</v>
       </c>
       <c r="AM8" t="n">
-        <v>470.9811762955146</v>
+        <v>439.1381775132589</v>
       </c>
       <c r="AN8" t="n">
-        <v>-526</v>
+        <v>-37</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="AP8" t="n">
-        <v>0.8680524216542017</v>
+        <v>0.9876649993741213</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>-1775001.497215264</v>
+        <v>-170224.5106752589</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
@@ -1686,121 +1686,121 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>38Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PTT : Thanyaburi, Nong Suea</t>
+          <t>Bueng Kan</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13581646.09074359</v>
+        <v>3823536.294459368</v>
       </c>
       <c r="F9" t="n">
-        <v>13701533.1853085</v>
+        <v>3832603.406270486</v>
       </c>
       <c r="G9" t="n">
-        <v>13683758.15447364</v>
+        <v>3775943.798953117</v>
       </c>
       <c r="H9" t="n">
-        <v>11992231.52473739</v>
+        <v>3678359.554601493</v>
       </c>
       <c r="I9" t="n">
-        <v>15263409.91731337</v>
+        <v>4276835.103699974</v>
       </c>
       <c r="J9" t="n">
-        <v>15283694.86187783</v>
+        <v>4314491.129824687</v>
       </c>
       <c r="K9" t="n">
-        <v>15296302.34564359</v>
+        <v>4353351.135870392</v>
       </c>
       <c r="L9" t="n">
-        <v>13627020.62513343</v>
+        <v>4392720.069828945</v>
       </c>
       <c r="M9" t="n">
-        <v>27941</v>
+        <v>9357</v>
       </c>
       <c r="N9" t="n">
-        <v>27805</v>
+        <v>9221</v>
       </c>
       <c r="O9" t="n">
-        <v>27677</v>
+        <v>9120</v>
       </c>
       <c r="P9" t="n">
-        <v>27647</v>
+        <v>8933</v>
       </c>
       <c r="Q9" t="n">
-        <v>486.0830353510466</v>
+        <v>408.6284380099784</v>
       </c>
       <c r="R9" t="n">
-        <v>492.772277838824</v>
+        <v>415.6385865166995</v>
       </c>
       <c r="S9" t="n">
-        <v>494.409009447326</v>
+        <v>414.0289253238067</v>
       </c>
       <c r="T9" t="n">
-        <v>433.7624886872859</v>
+        <v>411.772031187898</v>
       </c>
       <c r="U9" t="n">
-        <v>128</v>
+        <v>-86</v>
       </c>
       <c r="V9" t="n">
-        <v>132</v>
+        <v>-130</v>
       </c>
       <c r="W9" t="n">
-        <v>125</v>
+        <v>-118</v>
       </c>
       <c r="X9" t="n">
-        <v>161</v>
+        <v>-119</v>
       </c>
       <c r="Y9" t="n">
-        <v>578</v>
+        <v>145</v>
       </c>
       <c r="Z9" t="n">
-        <v>498</v>
+        <v>91</v>
       </c>
       <c r="AA9" t="n">
-        <v>522</v>
+        <v>112</v>
       </c>
       <c r="AB9" t="n">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="AC9" t="n">
-        <v>450</v>
+        <v>233</v>
       </c>
       <c r="AD9" t="n">
-        <v>400</v>
+        <v>241</v>
       </c>
       <c r="AE9" t="n">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="AF9" t="n">
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="AG9" t="n">
-        <v>39377522.86451954</v>
+        <v>11286906.7598251</v>
       </c>
       <c r="AH9" t="n">
-        <v>44207017.83265486</v>
+        <v>13060562.33552402</v>
       </c>
       <c r="AI9" t="n">
-        <v>83129</v>
+        <v>27274</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1479</v>
+        <v>272</v>
       </c>
       <c r="AK9" t="n">
-        <v>1095</v>
+        <v>679</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.8907527536370511</v>
+        <v>0.8641976103222845</v>
       </c>
       <c r="AM9" t="n">
-        <v>473.6917665859031</v>
+        <v>413.833935609925</v>
       </c>
       <c r="AN9" t="n">
-        <v>384</v>
+        <v>-407</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1808,13 +1808,13 @@
         </is>
       </c>
       <c r="AP9" t="n">
-        <v>0.8752474166610851</v>
+        <v>0.9597548101594242</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>-1709301.660571108</v>
+        <v>-154243.851668993</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
@@ -1831,121 +1831,121 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>19Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BKK : Thon Buri, Khlong San</t>
+          <t>Saraburi</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12077992.03942952</v>
+        <v>10750895.35970884</v>
       </c>
       <c r="F10" t="n">
-        <v>12300109.14648803</v>
+        <v>11012911.90641821</v>
       </c>
       <c r="G10" t="n">
-        <v>12251876.20931968</v>
+        <v>10987210.74544032</v>
       </c>
       <c r="H10" t="n">
-        <v>10728990.56288833</v>
+        <v>10865599.35749231</v>
       </c>
       <c r="I10" t="n">
-        <v>13071127.26366829</v>
+        <v>11113713.50956343</v>
       </c>
       <c r="J10" t="n">
-        <v>13076507.21351735</v>
+        <v>11218027.44054061</v>
       </c>
       <c r="K10" t="n">
-        <v>13074054.00807948</v>
+        <v>11326148.10658835</v>
       </c>
       <c r="L10" t="n">
-        <v>11634124.60547531</v>
+        <v>11435877.89724794</v>
       </c>
       <c r="M10" t="n">
-        <v>25051</v>
+        <v>23525</v>
       </c>
       <c r="N10" t="n">
-        <v>25001</v>
+        <v>23474</v>
       </c>
       <c r="O10" t="n">
-        <v>24946</v>
+        <v>23269</v>
       </c>
       <c r="P10" t="n">
-        <v>24895</v>
+        <v>23099</v>
       </c>
       <c r="Q10" t="n">
-        <v>482.1361238844564</v>
+        <v>456.9987400513853</v>
       </c>
       <c r="R10" t="n">
-        <v>491.9846864720622</v>
+        <v>469.1536127808729</v>
       </c>
       <c r="S10" t="n">
-        <v>491.1359019209365</v>
+        <v>472.1823346701756</v>
       </c>
       <c r="T10" t="n">
-        <v>430.9696952355224</v>
+        <v>470.3926298754192</v>
       </c>
       <c r="U10" t="n">
-        <v>72</v>
+        <v>-151</v>
       </c>
       <c r="V10" t="n">
-        <v>31</v>
+        <v>-148</v>
       </c>
       <c r="W10" t="n">
-        <v>-3</v>
+        <v>-192</v>
       </c>
       <c r="X10" t="n">
-        <v>122</v>
+        <v>-196</v>
       </c>
       <c r="Y10" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>303</v>
+      </c>
+      <c r="AA10" t="n">
         <v>314</v>
       </c>
-      <c r="Z10" t="n">
-        <v>264</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>229</v>
-      </c>
       <c r="AB10" t="n">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="AC10" t="n">
-        <v>242</v>
+        <v>541</v>
       </c>
       <c r="AD10" t="n">
-        <v>252</v>
+        <v>474</v>
       </c>
       <c r="AE10" t="n">
-        <v>239</v>
+        <v>512</v>
       </c>
       <c r="AF10" t="n">
-        <v>208</v>
+        <v>420</v>
       </c>
       <c r="AG10" t="n">
-        <v>35280975.91869604</v>
+        <v>32865722.00935083</v>
       </c>
       <c r="AH10" t="n">
-        <v>37784685.82707214</v>
+        <v>33980053.4443769</v>
       </c>
       <c r="AI10" t="n">
-        <v>74842</v>
+        <v>69842</v>
       </c>
       <c r="AJ10" t="n">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="AK10" t="n">
-        <v>699</v>
+        <v>1406</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9337374427344787</v>
+        <v>0.967206307169288</v>
       </c>
       <c r="AM10" t="n">
-        <v>471.40610778301</v>
+        <v>470.5724636944937</v>
       </c>
       <c r="AN10" t="n">
-        <v>124</v>
+        <v>-565</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
         </is>
       </c>
       <c r="AP10" t="n">
-        <v>0.872267915277135</v>
+        <v>0.9866236513850574</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>-1571118.583599696</v>
+        <v>-147312.5489259027</v>
       </c>
       <c r="AS10" t="n">
         <v>9</v>
@@ -1976,121 +1976,121 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>67Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BKK : Yan Nawa, Bang Kho Laem</t>
+          <t>Phetchabun</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11672028.40535326</v>
+        <v>9719100.496205455</v>
       </c>
       <c r="F11" t="n">
-        <v>11750789.42515798</v>
+        <v>9837933.782801658</v>
       </c>
       <c r="G11" t="n">
-        <v>11698645.57799391</v>
+        <v>9783540.393159378</v>
       </c>
       <c r="H11" t="n">
-        <v>10207752.28841918</v>
+        <v>9694125.831054434</v>
       </c>
       <c r="I11" t="n">
-        <v>12987107.10228319</v>
+        <v>10208395.67753245</v>
       </c>
       <c r="J11" t="n">
-        <v>12984153.98227398</v>
+        <v>10296101.69072255</v>
       </c>
       <c r="K11" t="n">
-        <v>12972547.19867737</v>
+        <v>10386453.20705722</v>
       </c>
       <c r="L11" t="n">
-        <v>11534671.89878613</v>
+        <v>10477922.98987966</v>
       </c>
       <c r="M11" t="n">
-        <v>23223</v>
+        <v>24002</v>
       </c>
       <c r="N11" t="n">
-        <v>23125</v>
+        <v>23861</v>
       </c>
       <c r="O11" t="n">
-        <v>23093</v>
+        <v>23632</v>
       </c>
       <c r="P11" t="n">
-        <v>23060</v>
+        <v>23436</v>
       </c>
       <c r="Q11" t="n">
-        <v>502.6063990592627</v>
+        <v>404.9287766105097</v>
       </c>
       <c r="R11" t="n">
-        <v>508.142245412237</v>
+        <v>412.3018223377754</v>
       </c>
       <c r="S11" t="n">
-        <v>506.5883851380898</v>
+        <v>413.9954465622621</v>
       </c>
       <c r="T11" t="n">
-        <v>442.6605502350033</v>
+        <v>413.6425085788716</v>
       </c>
       <c r="U11" t="n">
-        <v>100</v>
+        <v>-264</v>
       </c>
       <c r="V11" t="n">
-        <v>96</v>
+        <v>-235</v>
       </c>
       <c r="W11" t="n">
-        <v>156</v>
+        <v>-240</v>
       </c>
       <c r="X11" t="n">
-        <v>133</v>
+        <v>-197</v>
       </c>
       <c r="Y11" t="n">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="Z11" t="n">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="AA11" t="n">
-        <v>385</v>
+        <v>167</v>
       </c>
       <c r="AB11" t="n">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="AC11" t="n">
-        <v>267</v>
+        <v>502</v>
       </c>
       <c r="AD11" t="n">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="AE11" t="n">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="AF11" t="n">
-        <v>178</v>
+        <v>411</v>
       </c>
       <c r="AG11" t="n">
-        <v>33657187.29157107</v>
+        <v>29315600.00701547</v>
       </c>
       <c r="AH11" t="n">
-        <v>37491373.07973748</v>
+        <v>31160477.88765943</v>
       </c>
       <c r="AI11" t="n">
-        <v>69278</v>
+        <v>70929</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1004</v>
+        <v>396</v>
       </c>
       <c r="AK11" t="n">
-        <v>642</v>
+        <v>1240</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.8977315186613254</v>
+        <v>0.9407943008032431</v>
       </c>
       <c r="AM11" t="n">
-        <v>485.8279293797607</v>
+        <v>413.3090838305273</v>
       </c>
       <c r="AN11" t="n">
-        <v>362</v>
+        <v>-844</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2098,13 +2098,13 @@
         </is>
       </c>
       <c r="AP11" t="n">
-        <v>0.8686865128026868</v>
+        <v>0.9853823013122305</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>-1543037.136738805</v>
+        <v>-143807.9517472237</v>
       </c>
       <c r="AS11" t="n">
         <v>10</v>
@@ -2121,121 +2121,121 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>33Z</t>
+          <t>80Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Si Sa Ket</t>
+          <t>Nakhon Si Thammarat</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10396260.60292771</v>
+        <v>12255775.39451232</v>
       </c>
       <c r="F12" t="n">
-        <v>10428965.44235052</v>
+        <v>12516269.5783416</v>
       </c>
       <c r="G12" t="n">
-        <v>10314893.63782322</v>
+        <v>12433562.04526426</v>
       </c>
       <c r="H12" t="n">
-        <v>9098125.237005727</v>
+        <v>12389858.66378977</v>
       </c>
       <c r="I12" t="n">
-        <v>10721588.67972448</v>
+        <v>12788961.21423587</v>
       </c>
       <c r="J12" t="n">
-        <v>10829544.47831612</v>
+        <v>12960745.98257485</v>
       </c>
       <c r="K12" t="n">
-        <v>10941941.12288088</v>
+        <v>13142341.71721012</v>
       </c>
       <c r="L12" t="n">
-        <v>9850696.688450785</v>
+        <v>13328084.59284896</v>
       </c>
       <c r="M12" t="n">
-        <v>25230</v>
+        <v>29379</v>
       </c>
       <c r="N12" t="n">
-        <v>24973</v>
+        <v>29359</v>
       </c>
       <c r="O12" t="n">
-        <v>24653</v>
+        <v>29183</v>
       </c>
       <c r="P12" t="n">
-        <v>24465</v>
+        <v>29064</v>
       </c>
       <c r="Q12" t="n">
-        <v>412.0594769293583</v>
+        <v>417.1610808574941</v>
       </c>
       <c r="R12" t="n">
-        <v>417.6096361010098</v>
+        <v>426.3179801199494</v>
       </c>
       <c r="S12" t="n">
-        <v>418.4031816745718</v>
+        <v>426.0549650571999</v>
       </c>
       <c r="T12" t="n">
-        <v>371.8833123648366</v>
+        <v>426.2957151042448</v>
       </c>
       <c r="U12" t="n">
-        <v>-116</v>
+        <v>-359</v>
       </c>
       <c r="V12" t="n">
-        <v>-99</v>
+        <v>-237</v>
       </c>
       <c r="W12" t="n">
-        <v>-132</v>
+        <v>-328</v>
       </c>
       <c r="X12" t="n">
-        <v>-218</v>
+        <v>-207</v>
       </c>
       <c r="Y12" t="n">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="Z12" t="n">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="AA12" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AB12" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AC12" t="n">
-        <v>612</v>
+        <v>795</v>
       </c>
       <c r="AD12" t="n">
-        <v>608</v>
+        <v>762</v>
       </c>
       <c r="AE12" t="n">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="AF12" t="n">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="AG12" t="n">
-        <v>29841984.31717946</v>
+        <v>37339690.28739563</v>
       </c>
       <c r="AH12" t="n">
-        <v>31622182.28964779</v>
+        <v>39431172.29263394</v>
       </c>
       <c r="AI12" t="n">
-        <v>74091</v>
+        <v>87606</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="AK12" t="n">
-        <v>1657</v>
+        <v>1999</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.9437041391968982</v>
+        <v>0.9469586653494191</v>
       </c>
       <c r="AM12" t="n">
-        <v>402.7747542505765</v>
+        <v>426.2229788758262</v>
       </c>
       <c r="AN12" t="n">
-        <v>-482</v>
+        <v>-840</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2243,13 +2243,13 @@
         </is>
       </c>
       <c r="AP12" t="n">
-        <v>0.8723900071678786</v>
+        <v>0.9899002723007366</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR12" t="n">
-        <v>-1330840.205344791</v>
+        <v>-126410.9145518243</v>
       </c>
       <c r="AS12" t="n">
         <v>11</v>
@@ -2266,121 +2266,121 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>46Z</t>
+          <t>37Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kalasin</t>
+          <t>Amnat Charoen</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8798332.034040578</v>
+        <v>4097012.878065604</v>
       </c>
       <c r="F13" t="n">
-        <v>8935688.979372548</v>
+        <v>4114474.297537568</v>
       </c>
       <c r="G13" t="n">
-        <v>8826148.061957184</v>
+        <v>4063166.754796312</v>
       </c>
       <c r="H13" t="n">
-        <v>7666496.980003617</v>
+        <v>3996562.005995332</v>
       </c>
       <c r="I13" t="n">
-        <v>8429327.721015861</v>
+        <v>4345800.588600704</v>
       </c>
       <c r="J13" t="n">
-        <v>8597378.862266319</v>
+        <v>4394424.398185613</v>
       </c>
       <c r="K13" t="n">
-        <v>8777650.066356234</v>
+        <v>4445358.859973505</v>
       </c>
       <c r="L13" t="n">
-        <v>7991894.664352423</v>
+        <v>4497270.045180584</v>
       </c>
       <c r="M13" t="n">
-        <v>21373</v>
+        <v>10157</v>
       </c>
       <c r="N13" t="n">
-        <v>21280</v>
+        <v>10076</v>
       </c>
       <c r="O13" t="n">
-        <v>21013</v>
+        <v>9884</v>
       </c>
       <c r="P13" t="n">
-        <v>20750</v>
+        <v>9757</v>
       </c>
       <c r="Q13" t="n">
-        <v>411.6563904945762</v>
+        <v>403.3684038658663</v>
       </c>
       <c r="R13" t="n">
-        <v>419.9101963990859</v>
+        <v>408.3440152379483</v>
       </c>
       <c r="S13" t="n">
-        <v>420.0327445846468</v>
+        <v>411.0852645483926</v>
       </c>
       <c r="T13" t="n">
-        <v>369.4697339760779</v>
+        <v>409.6097167157254</v>
       </c>
       <c r="U13" t="n">
-        <v>-150</v>
+        <v>-146</v>
       </c>
       <c r="V13" t="n">
-        <v>-208</v>
+        <v>-86</v>
       </c>
       <c r="W13" t="n">
-        <v>-282</v>
+        <v>-142</v>
       </c>
       <c r="X13" t="n">
-        <v>-298</v>
+        <v>-125</v>
       </c>
       <c r="Y13" t="n">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>125</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>107</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>289</v>
+      </c>
+      <c r="AD13" t="n">
         <v>232</v>
       </c>
-      <c r="AA13" t="n">
-        <v>232</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>131</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>473</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>484</v>
-      </c>
       <c r="AE13" t="n">
-        <v>524</v>
+        <v>275</v>
       </c>
       <c r="AF13" t="n">
-        <v>429</v>
+        <v>233</v>
       </c>
       <c r="AG13" t="n">
-        <v>25428334.02133335</v>
+        <v>12174203.05832921</v>
       </c>
       <c r="AH13" t="n">
-        <v>25366923.59297498</v>
+        <v>13337053.3033397</v>
       </c>
       <c r="AI13" t="n">
-        <v>63043</v>
+        <v>29717</v>
       </c>
       <c r="AJ13" t="n">
-        <v>595</v>
+        <v>356</v>
       </c>
       <c r="AK13" t="n">
-        <v>1437</v>
+        <v>740</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.002420885927822</v>
+        <v>0.912810557282597</v>
       </c>
       <c r="AM13" t="n">
-        <v>403.3490478139262</v>
+        <v>409.6713348699133</v>
       </c>
       <c r="AN13" t="n">
-        <v>-842</v>
+        <v>-384</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2388,13 +2388,13 @@
         </is>
       </c>
       <c r="AP13" t="n">
-        <v>0.8579637225177849</v>
+        <v>0.9713420760429095</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1269191.999368931</v>
+        <v>-117912.2915422353</v>
       </c>
       <c r="AS13" t="n">
         <v>12</v>
@@ -2411,121 +2411,121 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>67Z</t>
+          <t>47Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Phetchabun</t>
+          <t>Sakon Nakhon</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9719100.496205455</v>
+        <v>8650944.388549648</v>
       </c>
       <c r="F14" t="n">
-        <v>9837933.782801658</v>
+        <v>8751588.087560123</v>
       </c>
       <c r="G14" t="n">
-        <v>9783540.393159378</v>
+        <v>8687492.33581236</v>
       </c>
       <c r="H14" t="n">
-        <v>8608908.117435973</v>
+        <v>8633978.088009104</v>
       </c>
       <c r="I14" t="n">
-        <v>10208395.67753245</v>
+        <v>8556362.663735118</v>
       </c>
       <c r="J14" t="n">
-        <v>10296101.69072255</v>
+        <v>8679644.197327759</v>
       </c>
       <c r="K14" t="n">
-        <v>10386453.20705722</v>
+        <v>8810365.970057365</v>
       </c>
       <c r="L14" t="n">
-        <v>9334352.669301629</v>
+        <v>8944232.766409136</v>
       </c>
       <c r="M14" t="n">
-        <v>24002</v>
+        <v>20682</v>
       </c>
       <c r="N14" t="n">
-        <v>23861</v>
+        <v>20582</v>
       </c>
       <c r="O14" t="n">
-        <v>23632</v>
+        <v>20477</v>
       </c>
       <c r="P14" t="n">
-        <v>23436</v>
+        <v>20288</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.9287766105097</v>
+        <v>418.2837437650928</v>
       </c>
       <c r="R14" t="n">
-        <v>412.3018223377754</v>
+        <v>425.2059123292257</v>
       </c>
       <c r="S14" t="n">
-        <v>413.9954465622621</v>
+        <v>424.2561086004962</v>
       </c>
       <c r="T14" t="n">
-        <v>367.3369225736462</v>
+        <v>425.5706865146443</v>
       </c>
       <c r="U14" t="n">
-        <v>-264</v>
+        <v>-70</v>
       </c>
       <c r="V14" t="n">
-        <v>-235</v>
+        <v>-166</v>
       </c>
       <c r="W14" t="n">
-        <v>-240</v>
+        <v>-141</v>
       </c>
       <c r="X14" t="n">
-        <v>-197</v>
+        <v>-157</v>
       </c>
       <c r="Y14" t="n">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="Z14" t="n">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="AA14" t="n">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="AB14" t="n">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="AC14" t="n">
-        <v>502</v>
+        <v>357</v>
       </c>
       <c r="AD14" t="n">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="AE14" t="n">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="AF14" t="n">
-        <v>411</v>
+        <v>286</v>
       </c>
       <c r="AG14" t="n">
-        <v>28230382.29339701</v>
+        <v>26073058.51138159</v>
       </c>
       <c r="AH14" t="n">
-        <v>30016907.5670814</v>
+        <v>26434242.93379426</v>
       </c>
       <c r="AI14" t="n">
-        <v>70929</v>
+        <v>61347</v>
       </c>
       <c r="AJ14" t="n">
-        <v>396</v>
+        <v>543</v>
       </c>
       <c r="AK14" t="n">
-        <v>1240</v>
+        <v>1038</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.9404827006349041</v>
+        <v>0.9863364945492378</v>
       </c>
       <c r="AM14" t="n">
-        <v>398.0090272441034</v>
+        <v>425.0095116530815</v>
       </c>
       <c r="AN14" t="n">
-        <v>-844</v>
+        <v>-495</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -2533,13 +2533,13 @@
         </is>
       </c>
       <c r="AP14" t="n">
-        <v>0.8750727853531373</v>
+        <v>0.9865612962613958</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>-1229025.665365685</v>
+        <v>-117609.9995510187</v>
       </c>
       <c r="AS14" t="n">
         <v>13</v>
@@ -2556,121 +2556,121 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>42Z</t>
+          <t>44Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Loei</t>
+          <t>Maha Sarakham</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7820850.666830473</v>
+        <v>10403424.89250769</v>
       </c>
       <c r="F15" t="n">
-        <v>7855187.037687428</v>
+        <v>10616130.59061686</v>
       </c>
       <c r="G15" t="n">
-        <v>7796726.885482958</v>
+        <v>10570823.50353701</v>
       </c>
       <c r="H15" t="n">
-        <v>6851842.121579705</v>
+        <v>10509830.02610227</v>
       </c>
       <c r="I15" t="n">
-        <v>8469228.049394581</v>
+        <v>10143375.96047597</v>
       </c>
       <c r="J15" t="n">
-        <v>8570932.100422403</v>
+        <v>10366000.8564273</v>
       </c>
       <c r="K15" t="n">
-        <v>8677867.989216294</v>
+        <v>10605471.67395367</v>
       </c>
       <c r="L15" t="n">
-        <v>7830125.104103997</v>
+        <v>10852063.34069612</v>
       </c>
       <c r="M15" t="n">
-        <v>18331</v>
+        <v>25661</v>
       </c>
       <c r="N15" t="n">
-        <v>18163</v>
+        <v>25581</v>
       </c>
       <c r="O15" t="n">
-        <v>18003</v>
+        <v>25389</v>
       </c>
       <c r="P15" t="n">
-        <v>17802</v>
+        <v>25289</v>
       </c>
       <c r="Q15" t="n">
-        <v>426.6461549741134</v>
+        <v>405.4177503802535</v>
       </c>
       <c r="R15" t="n">
-        <v>432.4829068814308</v>
+        <v>415.0006094608054</v>
       </c>
       <c r="S15" t="n">
-        <v>433.0793137523167</v>
+        <v>416.3544646711966</v>
       </c>
       <c r="T15" t="n">
-        <v>384.8917043916248</v>
+        <v>415.5889922931818</v>
       </c>
       <c r="U15" t="n">
         <v>-199</v>
       </c>
       <c r="V15" t="n">
-        <v>-224</v>
+        <v>-211</v>
       </c>
       <c r="W15" t="n">
-        <v>-142</v>
+        <v>-242</v>
       </c>
       <c r="X15" t="n">
-        <v>-230</v>
+        <v>-203</v>
       </c>
       <c r="Y15" t="n">
-        <v>201</v>
+        <v>396</v>
       </c>
       <c r="Z15" t="n">
-        <v>149</v>
+        <v>373</v>
       </c>
       <c r="AA15" t="n">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="AB15" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="AC15" t="n">
-        <v>400</v>
+        <v>595</v>
       </c>
       <c r="AD15" t="n">
-        <v>389</v>
+        <v>646</v>
       </c>
       <c r="AE15" t="n">
-        <v>346</v>
+        <v>564</v>
       </c>
       <c r="AF15" t="n">
-        <v>369</v>
+        <v>481</v>
       </c>
       <c r="AG15" t="n">
-        <v>22503756.04475009</v>
+        <v>31696784.12025615</v>
       </c>
       <c r="AH15" t="n">
-        <v>25078925.19374269</v>
+        <v>31823535.87107708</v>
       </c>
       <c r="AI15" t="n">
-        <v>53968</v>
+        <v>76259</v>
       </c>
       <c r="AJ15" t="n">
-        <v>487</v>
+        <v>968</v>
       </c>
       <c r="AK15" t="n">
-        <v>1104</v>
+        <v>1691</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.8973174037922838</v>
+        <v>0.9960170437586059</v>
       </c>
       <c r="AM15" t="n">
-        <v>416.9833242801307</v>
+        <v>415.6464695348241</v>
       </c>
       <c r="AN15" t="n">
-        <v>-617</v>
+        <v>-723</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -2678,13 +2678,13 @@
         </is>
       </c>
       <c r="AP15" t="n">
-        <v>0.8722697612044247</v>
+        <v>0.9899868823572552</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>-1003344.916107723</v>
+        <v>-106300.5645145886</v>
       </c>
       <c r="AS15" t="n">
         <v>14</v>
@@ -2701,121 +2701,121 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>38Z</t>
+          <t>39Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bueng Kan</t>
+          <t>Nong Bua Lam Phu</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3823536.294459368</v>
+        <v>3733578.02515911</v>
       </c>
       <c r="F16" t="n">
-        <v>3832603.406270486</v>
+        <v>3787806.895018658</v>
       </c>
       <c r="G16" t="n">
-        <v>3775943.798953117</v>
+        <v>3764506.610039553</v>
       </c>
       <c r="H16" t="n">
-        <v>3274540.394937525</v>
+        <v>3693853.260583137</v>
       </c>
       <c r="I16" t="n">
-        <v>4276835.103699974</v>
+        <v>3826302.705063221</v>
       </c>
       <c r="J16" t="n">
-        <v>4314491.129824687</v>
+        <v>3881208.879257002</v>
       </c>
       <c r="K16" t="n">
-        <v>4353351.135870392</v>
+        <v>3939418.748047662</v>
       </c>
       <c r="L16" t="n">
-        <v>3913361.654074763</v>
+        <v>3999025.103880892</v>
       </c>
       <c r="M16" t="n">
-        <v>9357</v>
+        <v>8927</v>
       </c>
       <c r="N16" t="n">
-        <v>9221</v>
+        <v>8887</v>
       </c>
       <c r="O16" t="n">
-        <v>9120</v>
+        <v>8771</v>
       </c>
       <c r="P16" t="n">
-        <v>8933</v>
+        <v>8670</v>
       </c>
       <c r="Q16" t="n">
-        <v>408.6284380099784</v>
+        <v>418.2343480630794</v>
       </c>
       <c r="R16" t="n">
-        <v>415.6385865166995</v>
+        <v>426.2188471946279</v>
       </c>
       <c r="S16" t="n">
-        <v>414.0289253238067</v>
+        <v>429.1992486648675</v>
       </c>
       <c r="T16" t="n">
-        <v>366.5667071462582</v>
+        <v>426.0499723855983</v>
       </c>
       <c r="U16" t="n">
-        <v>-86</v>
+        <v>-71</v>
       </c>
       <c r="V16" t="n">
-        <v>-130</v>
+        <v>-97</v>
       </c>
       <c r="W16" t="n">
-        <v>-118</v>
+        <v>-107</v>
       </c>
       <c r="X16" t="n">
-        <v>-119</v>
+        <v>-50</v>
       </c>
       <c r="Y16" t="n">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AA16" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="n">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="AD16" t="n">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="AE16" t="n">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="AF16" t="n">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="n">
-        <v>10883087.60016113</v>
+        <v>11246166.76564135</v>
       </c>
       <c r="AH16" t="n">
-        <v>12581203.91976984</v>
+        <v>11819652.73118556</v>
       </c>
       <c r="AI16" t="n">
-        <v>27274</v>
+        <v>26328</v>
       </c>
       <c r="AJ16" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK16" t="n">
-        <v>679</v>
+        <v>537</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.8650275179992648</v>
+        <v>0.9514803033061119</v>
       </c>
       <c r="AM16" t="n">
-        <v>399.0279240361197</v>
+        <v>427.156136646967</v>
       </c>
       <c r="AN16" t="n">
-        <v>-407</v>
+        <v>-275</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="AP16" t="n">
-        <v>0.8543906185492818</v>
+        <v>0.9751957697317993</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>-558063.0113329613</v>
+        <v>-93953.63443552097</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -2846,121 +2846,121 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>008</t>
+          <t>35Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BKK : Pom Prap Sattru Phai, Samphanthawong</t>
+          <t>Yasothon</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4098842.50110745</v>
+        <v>5151308.206864229</v>
       </c>
       <c r="F17" t="n">
-        <v>4108982.411476664</v>
+        <v>5220522.197509721</v>
       </c>
       <c r="G17" t="n">
-        <v>4091998.961153061</v>
+        <v>5182477.785524497</v>
       </c>
       <c r="H17" t="n">
-        <v>3555819.125138337</v>
+        <v>5130752.593287205</v>
       </c>
       <c r="I17" t="n">
-        <v>4699448.450167</v>
+        <v>5360306.022771377</v>
       </c>
       <c r="J17" t="n">
-        <v>4675332.362444738</v>
+        <v>5424488.577033119</v>
       </c>
       <c r="K17" t="n">
-        <v>4645666.256745281</v>
+        <v>5491962.764014146</v>
       </c>
       <c r="L17" t="n">
-        <v>4105362.80036671</v>
+        <v>5560828.339432056</v>
       </c>
       <c r="M17" t="n">
-        <v>8046</v>
+        <v>12538</v>
       </c>
       <c r="N17" t="n">
-        <v>8008</v>
+        <v>12528</v>
       </c>
       <c r="O17" t="n">
-        <v>7991</v>
+        <v>12403</v>
       </c>
       <c r="P17" t="n">
-        <v>7971</v>
+        <v>12314</v>
       </c>
       <c r="Q17" t="n">
-        <v>509.4261124916045</v>
+        <v>410.8556553568535</v>
       </c>
       <c r="R17" t="n">
-        <v>513.1096917428401</v>
+        <v>416.7083490987964</v>
       </c>
       <c r="S17" t="n">
-        <v>512.075955594176</v>
+        <v>417.8406664133271</v>
       </c>
       <c r="T17" t="n">
-        <v>446.094483143688</v>
+        <v>416.6601098982626</v>
       </c>
       <c r="U17" t="n">
-        <v>80</v>
+        <v>-55</v>
       </c>
       <c r="V17" t="n">
-        <v>88</v>
+        <v>-68</v>
       </c>
       <c r="W17" t="n">
-        <v>132</v>
+        <v>-116</v>
       </c>
       <c r="X17" t="n">
-        <v>164</v>
+        <v>-92</v>
       </c>
       <c r="Y17" t="n">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="AA17" t="n">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="AB17" t="n">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="AC17" t="n">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="AD17" t="n">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="AF17" t="n">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="AG17" t="n">
-        <v>11756800.49776806</v>
+        <v>15533752.57632142</v>
       </c>
       <c r="AH17" t="n">
-        <v>13426361.41955673</v>
+        <v>16477279.68047932</v>
       </c>
       <c r="AI17" t="n">
-        <v>23970</v>
+        <v>37245</v>
       </c>
       <c r="AJ17" t="n">
-        <v>550</v>
+        <v>438</v>
       </c>
       <c r="AK17" t="n">
-        <v>167</v>
+        <v>748</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.87565053035465</v>
+        <v>0.9427376895668222</v>
       </c>
       <c r="AM17" t="n">
-        <v>490.4797871409287</v>
+        <v>417.0694744615766</v>
       </c>
       <c r="AN17" t="n">
-        <v>383</v>
+        <v>-310</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
@@ -2968,13 +2968,13 @@
         </is>
       </c>
       <c r="AP17" t="n">
-        <v>0.8653770615339444</v>
+        <v>0.982804478014606</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
-        <v>-553163.2863383275</v>
+        <v>-89769.6042225156</v>
       </c>
       <c r="AS17" t="n">
         <v>16</v>
@@ -2991,121 +2991,121 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>37Z</t>
+          <t>94Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Amnat Charoen</t>
+          <t>Pattani</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4097012.878065604</v>
+        <v>3362055.029393626</v>
       </c>
       <c r="F18" t="n">
-        <v>4114474.297537568</v>
+        <v>3435745.841225918</v>
       </c>
       <c r="G18" t="n">
-        <v>4063166.754796312</v>
+        <v>3413618.32639984</v>
       </c>
       <c r="H18" t="n">
-        <v>3583255.903982363</v>
+        <v>3352232.152973302</v>
       </c>
       <c r="I18" t="n">
-        <v>4345800.588600704</v>
+        <v>3363868.600655947</v>
       </c>
       <c r="J18" t="n">
-        <v>4394424.398185613</v>
+        <v>3435214.982066248</v>
       </c>
       <c r="K18" t="n">
-        <v>4445358.859973505</v>
+        <v>3511887.422432935</v>
       </c>
       <c r="L18" t="n">
-        <v>4007265.566628414</v>
+        <v>3590811.212634399</v>
       </c>
       <c r="M18" t="n">
-        <v>10157</v>
+        <v>8575</v>
       </c>
       <c r="N18" t="n">
-        <v>10076</v>
+        <v>8524</v>
       </c>
       <c r="O18" t="n">
-        <v>9884</v>
+        <v>8427</v>
       </c>
       <c r="P18" t="n">
-        <v>9757</v>
+        <v>8330</v>
       </c>
       <c r="Q18" t="n">
-        <v>403.3684038658663</v>
+        <v>392.0763882674783</v>
       </c>
       <c r="R18" t="n">
-        <v>408.3440152379483</v>
+        <v>403.0673206506239</v>
       </c>
       <c r="S18" t="n">
-        <v>411.0852645483926</v>
+        <v>405.0810877417634</v>
       </c>
       <c r="T18" t="n">
-        <v>367.2497595554333</v>
+        <v>402.4288298887517</v>
       </c>
       <c r="U18" t="n">
-        <v>-146</v>
+        <v>-4</v>
       </c>
       <c r="V18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W18" t="n">
         <v>-86</v>
       </c>
-      <c r="W18" t="n">
-        <v>-142</v>
-      </c>
       <c r="X18" t="n">
-        <v>-125</v>
+        <v>-143</v>
       </c>
       <c r="Y18" t="n">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="Z18" t="n">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="AA18" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AB18" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AC18" t="n">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="AD18" t="n">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="AE18" t="n">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="AF18" t="n">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="n">
-        <v>11760896.95631624</v>
+        <v>10201596.32059906</v>
       </c>
       <c r="AH18" t="n">
-        <v>12847048.82478753</v>
+        <v>10537913.61713358</v>
       </c>
       <c r="AI18" t="n">
-        <v>29717</v>
+        <v>25281</v>
       </c>
       <c r="AJ18" t="n">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="AK18" t="n">
-        <v>740</v>
+        <v>650</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.9154551459027984</v>
+        <v>0.9680850205502061</v>
       </c>
       <c r="AM18" t="n">
-        <v>395.7632653469813</v>
+        <v>403.5281959020237</v>
       </c>
       <c r="AN18" t="n">
-        <v>-384</v>
+        <v>-268</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="AP18" t="n">
-        <v>0.870890336130395</v>
+        <v>0.9756927048413985</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>-531218.3935552044</v>
+        <v>-83513.68825261621</v>
       </c>
       <c r="AS18" t="n">
         <v>17</v>
@@ -3136,121 +3136,121 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>55Z</t>
+          <t>71Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nan</t>
+          <t>Kanchanaburi</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4068985.134472975</v>
+        <v>7312877.734264036</v>
       </c>
       <c r="F19" t="n">
-        <v>4098857.241630564</v>
+        <v>7464755.629760893</v>
       </c>
       <c r="G19" t="n">
-        <v>4064757.298524913</v>
+        <v>7412071.807294833</v>
       </c>
       <c r="H19" t="n">
-        <v>3583381.127805837</v>
+        <v>7383852.784079865</v>
       </c>
       <c r="I19" t="n">
-        <v>4312860.597841661</v>
+        <v>7821305.20604573</v>
       </c>
       <c r="J19" t="n">
-        <v>4351514.88570879</v>
+        <v>7907846.096382265</v>
       </c>
       <c r="K19" t="n">
-        <v>4391454.767885773</v>
+        <v>7998443.840943892</v>
       </c>
       <c r="L19" t="n">
-        <v>3948350.129164396</v>
+        <v>8090756.4366313</v>
       </c>
       <c r="M19" t="n">
-        <v>10558</v>
+        <v>16998</v>
       </c>
       <c r="N19" t="n">
-        <v>10497</v>
+        <v>16931</v>
       </c>
       <c r="O19" t="n">
-        <v>10391</v>
+        <v>16797</v>
       </c>
       <c r="P19" t="n">
-        <v>10314</v>
+        <v>16719</v>
       </c>
       <c r="Q19" t="n">
-        <v>385.3935531798612</v>
+        <v>430.2198925911305</v>
       </c>
       <c r="R19" t="n">
-        <v>390.4789217519829</v>
+        <v>440.892778321475</v>
       </c>
       <c r="S19" t="n">
-        <v>391.1805695818413</v>
+        <v>441.2735492823023</v>
       </c>
       <c r="T19" t="n">
-        <v>347.428846985247</v>
+        <v>441.6444036174331</v>
       </c>
       <c r="U19" t="n">
-        <v>-45</v>
+        <v>-127</v>
       </c>
       <c r="V19" t="n">
-        <v>-53</v>
+        <v>-115</v>
       </c>
       <c r="W19" t="n">
-        <v>-96</v>
+        <v>-113</v>
       </c>
       <c r="X19" t="n">
-        <v>-77</v>
+        <v>-108</v>
       </c>
       <c r="Y19" t="n">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="AA19" t="n">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AC19" t="n">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="AD19" t="n">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="AE19" t="n">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="AF19" t="n">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="AG19" t="n">
-        <v>11746995.66796131</v>
+        <v>22260680.22113559</v>
       </c>
       <c r="AH19" t="n">
-        <v>12691319.78275896</v>
+        <v>23997046.37395746</v>
       </c>
       <c r="AI19" t="n">
-        <v>31202</v>
+        <v>50447</v>
       </c>
       <c r="AJ19" t="n">
-        <v>178</v>
+        <v>528</v>
       </c>
       <c r="AK19" t="n">
-        <v>457</v>
+        <v>897</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.9255929146092039</v>
+        <v>0.9276425054249077</v>
       </c>
       <c r="AM19" t="n">
-        <v>376.4821379386358</v>
+        <v>441.2686625792533</v>
       </c>
       <c r="AN19" t="n">
-        <v>-279</v>
+        <v>-369</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="AP19" t="n">
-        <v>0.8742390662965209</v>
+        <v>0.9891620235552681</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR19" t="n">
-        <v>-515476.1138247265</v>
+        <v>-80902.84568102844</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
@@ -3281,121 +3281,121 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>39Z</t>
+          <t>55Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nong Bua Lam Phu</t>
+          <t>Nan</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3733578.02515911</v>
+        <v>4068985.134472975</v>
       </c>
       <c r="F20" t="n">
-        <v>3787806.895018658</v>
+        <v>4098857.241630564</v>
       </c>
       <c r="G20" t="n">
-        <v>3764506.610039553</v>
+        <v>4064757.298524913</v>
       </c>
       <c r="H20" t="n">
-        <v>3294180.133765219</v>
+        <v>4019994.753141939</v>
       </c>
       <c r="I20" t="n">
-        <v>3826302.705063221</v>
+        <v>4312860.597841661</v>
       </c>
       <c r="J20" t="n">
-        <v>3881208.879257002</v>
+        <v>4351514.88570879</v>
       </c>
       <c r="K20" t="n">
-        <v>3939418.748047662</v>
+        <v>4391454.767885773</v>
       </c>
       <c r="L20" t="n">
-        <v>3564191.460814998</v>
+        <v>4431938.076756425</v>
       </c>
       <c r="M20" t="n">
-        <v>8927</v>
+        <v>10558</v>
       </c>
       <c r="N20" t="n">
-        <v>8887</v>
+        <v>10497</v>
       </c>
       <c r="O20" t="n">
-        <v>8771</v>
+        <v>10391</v>
       </c>
       <c r="P20" t="n">
-        <v>8670</v>
+        <v>10314</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.2343480630794</v>
+        <v>385.3935531798612</v>
       </c>
       <c r="R20" t="n">
-        <v>426.2188471946279</v>
+        <v>390.4789217519829</v>
       </c>
       <c r="S20" t="n">
-        <v>429.1992486648675</v>
+        <v>391.1805695818413</v>
       </c>
       <c r="T20" t="n">
-        <v>379.9515725219399</v>
+        <v>389.7609805256873</v>
       </c>
       <c r="U20" t="n">
-        <v>-71</v>
+        <v>-45</v>
       </c>
       <c r="V20" t="n">
-        <v>-97</v>
+        <v>-53</v>
       </c>
       <c r="W20" t="n">
-        <v>-107</v>
+        <v>-96</v>
       </c>
       <c r="X20" t="n">
-        <v>-50</v>
+        <v>-77</v>
       </c>
       <c r="Y20" t="n">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="Z20" t="n">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AB20" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AC20" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD20" t="n">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="AE20" t="n">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="n">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AG20" t="n">
-        <v>10846493.63882343</v>
+        <v>12183609.29329742</v>
       </c>
       <c r="AH20" t="n">
-        <v>11384819.08811966</v>
+        <v>13174907.73035099</v>
       </c>
       <c r="AI20" t="n">
-        <v>26328</v>
+        <v>31202</v>
       </c>
       <c r="AJ20" t="n">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="AK20" t="n">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.9527155025363566</v>
+        <v>0.9247586049676901</v>
       </c>
       <c r="AM20" t="n">
-        <v>411.9756015961497</v>
+        <v>390.475267396238</v>
       </c>
       <c r="AN20" t="n">
-        <v>-275</v>
+        <v>-279</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
         </is>
       </c>
       <c r="AP20" t="n">
-        <v>0.8696800615937925</v>
+        <v>0.9807598840750908</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>-493626.7612534394</v>
+        <v>-78862.48848862527</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
@@ -3426,121 +3426,121 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>94Z</t>
+          <t>43Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pattani</t>
+          <t>Nong Khai</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3362055.029393626</v>
+        <v>5926819.984245785</v>
       </c>
       <c r="F21" t="n">
-        <v>3435745.841225918</v>
+        <v>5984687.76376955</v>
       </c>
       <c r="G21" t="n">
-        <v>3413618.32639984</v>
+        <v>5968185.154720823</v>
       </c>
       <c r="H21" t="n">
-        <v>2960886.708010507</v>
+        <v>5918212.367957575</v>
       </c>
       <c r="I21" t="n">
-        <v>3363868.600655947</v>
+        <v>5966566.919568231</v>
       </c>
       <c r="J21" t="n">
-        <v>3435214.982066248</v>
+        <v>6080510.555135403</v>
       </c>
       <c r="K21" t="n">
-        <v>3511887.422432935</v>
+        <v>6202578.345241768</v>
       </c>
       <c r="L21" t="n">
-        <v>3202034.797401247</v>
+        <v>6328080.25317267</v>
       </c>
       <c r="M21" t="n">
-        <v>8575</v>
+        <v>13932</v>
       </c>
       <c r="N21" t="n">
-        <v>8524</v>
+        <v>13867</v>
       </c>
       <c r="O21" t="n">
-        <v>8427</v>
+        <v>13792</v>
       </c>
       <c r="P21" t="n">
-        <v>8330</v>
+        <v>13665</v>
       </c>
       <c r="Q21" t="n">
-        <v>392.0763882674783</v>
+        <v>425.4105644735705</v>
       </c>
       <c r="R21" t="n">
-        <v>403.0673206506239</v>
+        <v>431.5776854236353</v>
       </c>
       <c r="S21" t="n">
-        <v>405.0810877417634</v>
+        <v>432.7280419606166</v>
       </c>
       <c r="T21" t="n">
-        <v>355.4485843950189</v>
+        <v>433.0927455512312</v>
       </c>
       <c r="U21" t="n">
-        <v>-4</v>
+        <v>45</v>
       </c>
       <c r="V21" t="n">
-        <v>-4</v>
+        <v>-23</v>
       </c>
       <c r="W21" t="n">
-        <v>-86</v>
+        <v>22</v>
       </c>
       <c r="X21" t="n">
-        <v>-143</v>
+        <v>-50</v>
       </c>
       <c r="Y21" t="n">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="Z21" t="n">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="AA21" t="n">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="AB21" t="n">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="AC21" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AD21" t="n">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="AE21" t="n">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="AF21" t="n">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="n">
-        <v>9810250.875636265</v>
+        <v>17871085.28644795</v>
       </c>
       <c r="AH21" t="n">
-        <v>10149137.20190043</v>
+        <v>18611169.15354984</v>
       </c>
       <c r="AI21" t="n">
-        <v>25281</v>
+        <v>41324</v>
       </c>
       <c r="AJ21" t="n">
-        <v>382</v>
+        <v>712</v>
       </c>
       <c r="AK21" t="n">
-        <v>650</v>
+        <v>784</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.966609346240712</v>
+        <v>0.9602344236949385</v>
       </c>
       <c r="AM21" t="n">
-        <v>388.0483713316825</v>
+        <v>432.4626194571665</v>
       </c>
       <c r="AN21" t="n">
-        <v>-268</v>
+        <v>-72</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="AP21" t="n">
-        <v>0.8617886318837906</v>
+        <v>0.9888924203841665</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>-474859.1332154106</v>
+        <v>-66475.395811975</v>
       </c>
       <c r="AS21" t="n">
         <v>20</v>
